--- a/server_folder/phancong/phancong.xlsx
+++ b/server_folder/phancong/phancong.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dutudn-my.sharepoint.com/personal/102190246_sv1_dut_udn_vn/Documents/PBL4 phân công/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PBL4\BKZalo\server_folder\phancong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_AD4DA82427541F7ACA7EB84A60D0FB1A693EDF16" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD34A257-66B5-4194-A550-1A633522F18D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAE8384-087C-42C9-BA94-02D086FFBDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F5:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -708,7 +708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="6:8" ht="105" x14ac:dyDescent="0.35">
+    <row r="6" spans="6:8" ht="84" x14ac:dyDescent="0.35">
       <c r="F6" s="6" t="s">
         <v>16</v>
       </c>
@@ -737,7 +737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="6:8" ht="84" x14ac:dyDescent="0.35">
+    <row r="9" spans="6:8" ht="63" x14ac:dyDescent="0.35">
       <c r="F9" s="6"/>
       <c r="G9" s="4" t="s">
         <v>5</v>
